--- a/team_specific_matrix/Fairfield_A.xlsx
+++ b/team_specific_matrix/Fairfield_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1928934010152284</v>
+        <v>0.1867219917012448</v>
       </c>
       <c r="C2">
-        <v>0.5736040609137056</v>
+        <v>0.5726141078838174</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1725888324873096</v>
+        <v>0.1618257261410788</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06091370558375635</v>
+        <v>0.07468879668049792</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008474576271186441</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C3">
-        <v>0.01694915254237288</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03389830508474576</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7627118644067796</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1779661016949153</v>
+        <v>0.1849315068493151</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7714285714285715</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05228758169934641</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006535947712418301</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F6">
-        <v>0.06535947712418301</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.196078431372549</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0196078431372549</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2026143790849673</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.130718954248366</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="S6">
-        <v>0.326797385620915</v>
+        <v>0.354066985645933</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.146551724137931</v>
+        <v>0.1354838709677419</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01724137931034483</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="F7">
-        <v>0.04310344827586207</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1206896551724138</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01724137931034483</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1206896551724138</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="R7">
-        <v>0.07758620689655173</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="S7">
-        <v>0.456896551724138</v>
+        <v>0.4774193548387097</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08139534883720931</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01453488372093023</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002164502164502165</v>
       </c>
       <c r="F8">
-        <v>0.0755813953488372</v>
+        <v>0.0670995670995671</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1220930232558139</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01744186046511628</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1744186046511628</v>
+        <v>0.170995670995671</v>
       </c>
       <c r="R8">
-        <v>0.1133720930232558</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="S8">
-        <v>0.4011627906976744</v>
+        <v>0.4155844155844156</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06349206349206349</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02380952380952381</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06349206349206349</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1349206349206349</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02380952380952381</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1507936507936508</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="R9">
-        <v>0.09523809523809523</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="S9">
-        <v>0.4444444444444444</v>
+        <v>0.4432432432432433</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1021978021978022</v>
+        <v>0.08945686900958466</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02747252747252747</v>
+        <v>0.02715654952076677</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06703296703296703</v>
+        <v>0.07108626198083066</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1054945054945055</v>
+        <v>0.1142172523961661</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01208791208791209</v>
+        <v>0.01597444089456869</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2241758241758242</v>
+        <v>0.2100638977635783</v>
       </c>
       <c r="R10">
-        <v>0.1</v>
+        <v>0.1062300319488818</v>
       </c>
       <c r="S10">
-        <v>0.3615384615384615</v>
+        <v>0.365814696485623</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1137724550898204</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1017964071856287</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="K11">
-        <v>0.1796407185628743</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="L11">
-        <v>0.592814371257485</v>
+        <v>0.5482456140350878</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01197604790419162</v>
+        <v>0.008771929824561403</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7475728155339806</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2038834951456311</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01941747572815534</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02912621359223301</v>
+        <v>0.05384615384615385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6486486486486487</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2702702702702703</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02027027027027027</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1418918918918919</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="I15">
-        <v>0.03378378378378379</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="J15">
-        <v>0.3851351351351351</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="K15">
-        <v>0.06756756756756757</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01351351351351351</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05405405405405406</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2837837837837838</v>
+        <v>0.2864077669902912</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2083333333333333</v>
+        <v>0.2011173184357542</v>
       </c>
       <c r="I16">
-        <v>0.0763888888888889</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="J16">
-        <v>0.3541666666666667</v>
+        <v>0.3966480446927375</v>
       </c>
       <c r="K16">
-        <v>0.0625</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04166666666666666</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="N16">
-        <v>0.006944444444444444</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="O16">
-        <v>0.09027777777777778</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1597222222222222</v>
+        <v>0.1620111731843575</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01834862385321101</v>
+        <v>0.01405152224824356</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1987767584097859</v>
+        <v>0.1826697892271663</v>
       </c>
       <c r="I17">
-        <v>0.08868501529051988</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J17">
-        <v>0.4495412844036697</v>
+        <v>0.4519906323185012</v>
       </c>
       <c r="K17">
-        <v>0.07033639143730887</v>
+        <v>0.07494145199063232</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03058103975535168</v>
+        <v>0.02576112412177986</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03669724770642202</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1070336391437309</v>
+        <v>0.1030444964871194</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005813953488372093</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1918604651162791</v>
+        <v>0.2024291497975708</v>
       </c>
       <c r="I18">
-        <v>0.06395348837209303</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="J18">
-        <v>0.436046511627907</v>
+        <v>0.4331983805668016</v>
       </c>
       <c r="K18">
-        <v>0.0755813953488372</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01162790697674419</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08139534883720931</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1337209302325581</v>
+        <v>0.1255060728744939</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01349831271091114</v>
+        <v>0.01635322976287817</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2260967379077615</v>
+        <v>0.2281275551921504</v>
       </c>
       <c r="I19">
-        <v>0.08098987626546682</v>
+        <v>0.08340147179067865</v>
       </c>
       <c r="J19">
-        <v>0.3858267716535433</v>
+        <v>0.3851185609157809</v>
       </c>
       <c r="K19">
-        <v>0.08886389201349831</v>
+        <v>0.08994276369582993</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02137232845894263</v>
+        <v>0.02207686017988553</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06636670416197975</v>
+        <v>0.06541291905151267</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1169853768278965</v>
+        <v>0.1095666394112837</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fairfield_A.xlsx
+++ b/team_specific_matrix/Fairfield_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1867219917012448</v>
+        <v>0.1849056603773585</v>
       </c>
       <c r="C2">
-        <v>0.5726141078838174</v>
+        <v>0.5773584905660377</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004149377593360996</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1618257261410788</v>
+        <v>0.1547169811320755</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07468879668049792</v>
+        <v>0.07924528301886792</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00684931506849315</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.0136986301369863</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03424657534246575</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7602739726027398</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1849315068493151</v>
+        <v>0.191358024691358</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8222222222222222</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1555555555555556</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05263157894736842</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004784688995215311</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="E6">
-        <v>0.004784688995215311</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F6">
-        <v>0.07177033492822966</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2105263157894737</v>
+        <v>0.2081447963800905</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01913875598086124</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1818181818181818</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="R6">
-        <v>0.1004784688995215</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="S6">
-        <v>0.354066985645933</v>
+        <v>0.3574660633484163</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1354838709677419</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01290322580645161</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E7">
-        <v>0.006451612903225806</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="F7">
-        <v>0.03870967741935484</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1032258064516129</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01935483870967742</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1290322580645161</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="R7">
-        <v>0.07741935483870968</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="S7">
-        <v>0.4774193548387097</v>
+        <v>0.4578313253012048</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0735930735930736</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01298701298701299</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E8">
-        <v>0.002164502164502165</v>
+        <v>0.002040816326530612</v>
       </c>
       <c r="F8">
-        <v>0.0670995670995671</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.119047619047619</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01515151515151515</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.170995670995671</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.1233766233766234</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="S8">
-        <v>0.4155844155844156</v>
+        <v>0.4224489795918367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06486486486486487</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01621621621621622</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05945945945945946</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1243243243243243</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01621621621621622</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.145945945945946</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="R9">
-        <v>0.1297297297297297</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="S9">
-        <v>0.4432432432432433</v>
+        <v>0.4336734693877551</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08945686900958466</v>
+        <v>0.09144542772861357</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02715654952076677</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07108626198083066</v>
+        <v>0.06932153392330384</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142172523961661</v>
+        <v>0.1187315634218289</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01597444089456869</v>
+        <v>0.01622418879056047</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2100638977635783</v>
+        <v>0.2042772861356932</v>
       </c>
       <c r="R10">
-        <v>0.1062300319488818</v>
+        <v>0.107669616519174</v>
       </c>
       <c r="S10">
-        <v>0.365814696485623</v>
+        <v>0.3657817109144543</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1491228070175439</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09210526315789473</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="K11">
-        <v>0.2017543859649123</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5482456140350878</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008771929824561403</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7307692307692307</v>
+        <v>0.7338129496402878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01538461538461539</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05384615384615385</v>
+        <v>0.05035971223021583</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6326530612244898</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08163265306122448</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02427184466019417</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1359223300970874</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I15">
-        <v>0.04854368932038835</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.3786407766990291</v>
+        <v>0.3681818181818182</v>
       </c>
       <c r="K15">
-        <v>0.05339805825242718</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01941747572815534</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05339805825242718</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2864077669902912</v>
+        <v>0.2909090909090909</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2011173184357542</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="I16">
-        <v>0.07262569832402235</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="J16">
-        <v>0.3966480446927375</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="K16">
-        <v>0.05027932960893855</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03910614525139665</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="N16">
-        <v>0.00558659217877095</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="O16">
-        <v>0.07262569832402235</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1620111731843575</v>
+        <v>0.1494845360824742</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01405152224824356</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1826697892271663</v>
+        <v>0.1808035714285714</v>
       </c>
       <c r="I17">
-        <v>0.09836065573770492</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="J17">
-        <v>0.4519906323185012</v>
+        <v>0.4598214285714285</v>
       </c>
       <c r="K17">
-        <v>0.07494145199063232</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02576112412177986</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04918032786885246</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1030444964871194</v>
+        <v>0.1004464285714286</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004048582995951417</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2024291497975708</v>
+        <v>0.1933085501858736</v>
       </c>
       <c r="I18">
-        <v>0.08097165991902834</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="J18">
-        <v>0.4331983805668016</v>
+        <v>0.449814126394052</v>
       </c>
       <c r="K18">
-        <v>0.06072874493927125</v>
+        <v>0.05947955390334572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01214574898785425</v>
+        <v>0.01115241635687732</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08097165991902834</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1255060728744939</v>
+        <v>0.1263940520446097</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01635322976287817</v>
+        <v>0.01598173515981735</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2281275551921504</v>
+        <v>0.2267884322678843</v>
       </c>
       <c r="I19">
-        <v>0.08340147179067865</v>
+        <v>0.0837138508371385</v>
       </c>
       <c r="J19">
-        <v>0.3851185609157809</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K19">
-        <v>0.08994276369582993</v>
+        <v>0.08751902587519025</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02207686017988553</v>
+        <v>0.0213089802130898</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06541291905151267</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095666394112837</v>
+        <v>0.1118721461187215</v>
       </c>
     </row>
   </sheetData>
